--- a/final-reports/report/tables_and_code/derivative-free-comparison.xlsx
+++ b/final-reports/report/tables_and_code/derivative-free-comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KatB\Projects\Github\Thesis-report\MscThesis\final-reports\report\tables_and_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Projects\Research Projects\ThesisReport\MscThesis\final-reports\report\tables_and_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576C2782-638F-44BD-A363-1E78941BE14F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68540F8-28FF-453B-B8C7-43EC2D6FA1F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{81D96340-F6D8-4B07-8BE7-0F6B09547F31}"/>
+    <workbookView xWindow="-4545" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{81D96340-F6D8-4B07-8BE7-0F6B09547F31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Main advantages</t>
   </si>
   <si>
-    <t>More than 1</t>
-  </si>
-  <si>
     <t>Applicability to MOO</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>No convergence guarantees</t>
+  </si>
+  <si>
+    <t>&gt; 1</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -740,18 +740,18 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7890625" customWidth="1"/>
-    <col min="3" max="3" width="26.83984375" customWidth="1"/>
-    <col min="4" max="4" width="33.3671875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -777,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -819,7 +819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -827,16 +827,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D6" s="14">
         <v>1</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>14</v>
@@ -848,23 +848,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>12</v>
@@ -876,9 +876,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>12</v>
@@ -890,7 +890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -898,47 +898,47 @@
         <v>3</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/final-reports/report/tables_and_code/derivative-free-comparison.xlsx
+++ b/final-reports/report/tables_and_code/derivative-free-comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Projects\Research Projects\ThesisReport\MscThesis\final-reports\report\tables_and_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68540F8-28FF-453B-B8C7-43EC2D6FA1F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4B4C47-0A3B-4BF1-B5DD-E62AC1DAE80E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4545" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{81D96340-F6D8-4B07-8BE7-0F6B09547F31}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Metaheuristic</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Model-based</t>
   </si>
   <si>
-    <t xml:space="preserve">Direct search </t>
-  </si>
-  <si>
     <t>Deterministic</t>
   </si>
   <si>
@@ -63,39 +60,15 @@
     <t>Sometimes</t>
   </si>
   <si>
-    <t>Convergence rate (evals)</t>
-  </si>
-  <si>
     <t>+++</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Very frequent</t>
-  </si>
-  <si>
-    <t>Extremely rare</t>
-  </si>
-  <si>
     <t>Unusual</t>
   </si>
   <si>
-    <t>Sequential evaluation of candidate designs</t>
-  </si>
-  <si>
-    <t>Combine and randomly modify previous known best designs</t>
-  </si>
-  <si>
-    <t>Optimize a secondary model, instead of the expensive one</t>
-  </si>
-  <si>
-    <t>Late (typically &gt;1000)</t>
-  </si>
-  <si>
-    <t>Early (100-300)</t>
-  </si>
-  <si>
     <t>Main disadvantages</t>
   </si>
   <si>
@@ -108,15 +81,9 @@
     <t>Convergence rate</t>
   </si>
   <si>
-    <t>Flexible</t>
-  </si>
-  <si>
     <t>Applicable to any domain</t>
   </si>
   <si>
-    <t>Time complexity decrease</t>
-  </si>
-  <si>
     <t>Support in architecture</t>
   </si>
   <si>
@@ -129,9 +96,6 @@
     <t>Ease of use</t>
   </si>
   <si>
-    <t>Time complexity grows exponentially with the number of parameters</t>
-  </si>
-  <si>
     <t>Low convergence rate</t>
   </si>
   <si>
@@ -139,13 +103,70 @@
   </si>
   <si>
     <t>&gt; 1</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Depends</t>
+  </si>
+  <si>
+    <t>++++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct-search </t>
+  </si>
+  <si>
+    <t>Generate candidate solutions</t>
+  </si>
+  <si>
+    <t>Sequential evaluation of candidate solutions</t>
+  </si>
+  <si>
+    <t>Combine and randomly modify known best solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Late </t>
+  </si>
+  <si>
+    <t>(typically &gt;1000)</t>
+  </si>
+  <si>
+    <t>Early</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (100-300)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early </t>
+  </si>
+  <si>
+    <t>(100-300)</t>
+  </si>
+  <si>
+    <t>Performance deterioration for #parameters &gt; 10</t>
+  </si>
+  <si>
+    <t>Optimize cheaper model to get candidate solutions</t>
+  </si>
+  <si>
+    <t>Frequent</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Decrease in time complexity</t>
+  </si>
+  <si>
+    <t>(evals)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,88 +174,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="CMU Concrete"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="CMU Concrete"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -259,57 +229,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -321,27 +241,14 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -350,78 +257,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,212 +647,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489C0F82-ED8C-4A4B-B2AB-F35598AFE665}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="F13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="E14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="G14" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final-reports/report/tables_and_code/derivative-free-comparison.xlsx
+++ b/final-reports/report/tables_and_code/derivative-free-comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Projects\Research Projects\ThesisReport\MscThesis\final-reports\report\tables_and_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4B4C47-0A3B-4BF1-B5DD-E62AC1DAE80E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07E2DAE-3524-4FED-A4A1-528E747AFD97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4545" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{81D96340-F6D8-4B07-8BE7-0F6B09547F31}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{81D96340-F6D8-4B07-8BE7-0F6B09547F31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Metaheuristic</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>(evals)</t>
+  </si>
+  <si>
+    <t>No*</t>
   </si>
 </sst>
 </file>
@@ -178,12 +181,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="CMU Concrete"/>
+      <name val="CMU Serif"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="CMU Concrete"/>
+      <name val="CMU Serif"/>
     </font>
   </fonts>
   <fills count="3">
@@ -309,9 +312,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -322,16 +331,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,14 +652,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489C0F82-ED8C-4A4B-B2AB-F35598AFE665}">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="1.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
@@ -729,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>8</v>
@@ -831,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -863,38 +866,38 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="21" t="s">
         <v>37</v>
       </c>
     </row>
